--- a/Excel_Data/Instruction_Data.xlsx
+++ b/Excel_Data/Instruction_Data.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\Keyword_Driven_Framework_For_ACA\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\Keyword_Driven_Framework_For_ACA_With_Repository\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120445DC-7E26-4EAA-8000-427004472023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15858E-23ED-4B42-BA24-7EE05838D301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Testing for Opt Module (2)" sheetId="14" r:id="rId1"/>
-    <sheet name="Testing for Opt Module" sheetId="8" r:id="rId2"/>
-    <sheet name="TC for Optimize Module" sheetId="9" r:id="rId3"/>
-    <sheet name="TC for Trends Module" sheetId="7" r:id="rId4"/>
-    <sheet name="TC for Tactics Module" sheetId="5" r:id="rId5"/>
-    <sheet name="TC for Drivers Module" sheetId="4" r:id="rId6"/>
-    <sheet name="TC for Report Module" sheetId="11" r:id="rId7"/>
-    <sheet name="QC Testing" sheetId="13" r:id="rId8"/>
+    <sheet name="New ACA Instance QC Testing" sheetId="13" r:id="rId1"/>
+    <sheet name="TC for Optimize Module" sheetId="9" r:id="rId2"/>
+    <sheet name="Testing for Opt Module (2)" sheetId="14" r:id="rId3"/>
+    <sheet name="Testing for Opt Module" sheetId="8" r:id="rId4"/>
+    <sheet name="TC for Trends Module" sheetId="7" r:id="rId5"/>
+    <sheet name="TC for Tactics Module" sheetId="5" r:id="rId6"/>
+    <sheet name="TC for Drivers Module" sheetId="4" r:id="rId7"/>
+    <sheet name="TC for Report Module" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -803,11 +803,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BCE8FC-A2BD-45A7-BEE3-E3DB4E21E1B8}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11">
+        <v>28</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11">
+        <v>31</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11">
+        <v>34</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11">
+        <v>35</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11">
+        <v>37</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11">
+        <v>38</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECF1CA5-1E32-4EA3-9D60-19D8E605B4D0}">
+  <dimension ref="A1:G98"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="11"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="11"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="11"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="11"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="11"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="11"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="11"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="11"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="11"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="11"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="11"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="11"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="11"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="11"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="11"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="11"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="11"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="11"/>
+      <c r="D36" s="4"/>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="11"/>
+      <c r="D37" s="4"/>
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="11"/>
+      <c r="D38" s="4"/>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="11"/>
+      <c r="D39" s="4"/>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="11"/>
+      <c r="D40" s="4"/>
+      <c r="F40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C41" s="11"/>
+      <c r="D41" s="4"/>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C42" s="11"/>
+      <c r="D42" s="4"/>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C43" s="11"/>
+      <c r="D43" s="4"/>
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C44" s="11"/>
+      <c r="D44" s="4"/>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="11"/>
+      <c r="D45" s="4"/>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="11"/>
+      <c r="D46" s="4"/>
+      <c r="F46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C47" s="11"/>
+      <c r="D47" s="4"/>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C48" s="11"/>
+      <c r="D48" s="4"/>
+      <c r="F48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C49" s="11"/>
+      <c r="D49" s="4"/>
+      <c r="F49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C50" s="11"/>
+      <c r="D50" s="4"/>
+      <c r="F50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C51" s="11"/>
+      <c r="D51" s="4"/>
+      <c r="F51" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C52" s="11"/>
+      <c r="D52" s="4"/>
+      <c r="F52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C53" s="11"/>
+      <c r="D53" s="4"/>
+      <c r="F53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C54" s="11"/>
+      <c r="D54" s="4"/>
+      <c r="F54" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C55" s="11"/>
+      <c r="D55" s="4"/>
+      <c r="F55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C56" s="11"/>
+      <c r="D56" s="4"/>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C57" s="11"/>
+      <c r="D57" s="4"/>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C58" s="11"/>
+      <c r="D58" s="4"/>
+      <c r="F58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C59" s="11"/>
+      <c r="D59" s="5"/>
+      <c r="F59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C60" s="11"/>
+      <c r="D60" s="5"/>
+      <c r="F60" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C61" s="11"/>
+      <c r="D61" s="5"/>
+      <c r="F61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C62" s="11"/>
+      <c r="D62" s="5"/>
+      <c r="F62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>98</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>98</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>98</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B716928-00A7-402E-ABA4-773957F4045E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,11 +2424,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAC516C-D644-4379-935C-CBE484E33B4F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1176,976 +2671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECF1CA5-1E32-4EA3-9D60-19D8E605B4D0}">
-  <dimension ref="A1:F98"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="100.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="11"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="11"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="11"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="11"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="11"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="11"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="11"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="11"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="11"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="11"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="11"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="11"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="11"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C28" s="11"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="11"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C30" s="11"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="11"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="11"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="11"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C34" s="11"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C35" s="11"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C36" s="11"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="11"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C38" s="11"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C39" s="11"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C40" s="11"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C41" s="11"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C42" s="11"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="11"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C44" s="11"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C45" s="11"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C46" s="11"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C47" s="11"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C48" s="11"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="11"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C50" s="11"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C51" s="11"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C52" s="11"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C53" s="11"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C54" s="11"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C55" s="11"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C56" s="11"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C57" s="11"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C58" s="11"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C59" s="11"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C60" s="11"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C61" s="11"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C62" s="11"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E67" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E70" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E71" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E72" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E73" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E77" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E78" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E79" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E80" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E81" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E83" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E84" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E85" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E86" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E87" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E88" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E90" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E91" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E92" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E93" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E94" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E97" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E98" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD9C65-059F-4C7C-B5E3-657745CE1517}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2405,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C451EE-3FD0-4D3B-AFFD-995F0C73A5BA}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -2679,7 +3205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF966F3E-AAAE-4F67-A419-AF3A5230C645}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -2926,7 +3452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11EF18E-4BDD-4E7E-A79B-0122BC95C999}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3066,529 +3592,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BCE8FC-A2BD-45A7-BEE3-E3DB4E21E1B8}">
-  <dimension ref="A1:E38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="59" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11">
-        <v>18</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11">
-        <v>22</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11">
-        <v>23</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11">
-        <v>24</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11">
-        <v>25</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11">
-        <v>26</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11">
-        <v>27</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11">
-        <v>28</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11">
-        <v>29</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11">
-        <v>30</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11">
-        <v>31</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11">
-        <v>32</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11">
-        <v>33</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11">
-        <v>34</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11">
-        <v>35</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11">
-        <v>36</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11">
-        <v>37</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11">
-        <v>38</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel_Data/Instruction_Data.xlsx
+++ b/Excel_Data/Instruction_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\Keyword_Driven_Framework_For_ACA_With_Repository\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Keyword_Driven_Framework_ACA\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15858E-23ED-4B42-BA24-7EE05838D301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C2D8C-7EF6-480C-BF1E-C6F13E7CD2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New ACA Instance QC Testing" sheetId="13" r:id="rId1"/>
@@ -806,20 +806,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BCE8FC-A2BD-45A7-BEE3-E3DB4E21E1B8}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11">
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11">
@@ -892,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11">
@@ -905,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11">
@@ -918,7 +918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11">
@@ -931,7 +931,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11">
@@ -944,7 +944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11">
@@ -957,7 +957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11">
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11">
@@ -983,7 +983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11">
@@ -996,7 +996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11">
@@ -1009,7 +1009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11">
@@ -1022,7 +1022,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11">
@@ -1035,7 +1035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11">
@@ -1048,7 +1048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
@@ -1061,7 +1061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
@@ -1074,7 +1074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11">
@@ -1087,7 +1087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11">
@@ -1100,7 +1100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11">
@@ -1113,7 +1113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11">
@@ -1126,7 +1126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11">
@@ -1139,7 +1139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11">
@@ -1152,7 +1152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11">
@@ -1165,7 +1165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11">
@@ -1178,7 +1178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11">
@@ -1191,7 +1191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11">
@@ -1204,7 +1204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11">
@@ -1217,7 +1217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11">
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11">
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11">
@@ -1256,7 +1256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11">
@@ -1269,7 +1269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11">
@@ -1282,7 +1282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11">
@@ -1295,7 +1295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11">
@@ -1308,7 +1308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11">
@@ -1335,18 +1335,18 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.109375" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="100.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11">
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11">
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11">
@@ -1432,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11">
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1457,7 +1457,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1481,7 +1481,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1493,7 +1493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="11"/>
       <c r="D12" s="4"/>
       <c r="E12" s="12" t="s">
@@ -1503,7 +1503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="11"/>
       <c r="D13" s="4"/>
       <c r="E13" s="12" t="s">
@@ -1513,7 +1513,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="11"/>
       <c r="D14" s="4"/>
       <c r="E14" s="13" t="s">
@@ -1523,7 +1523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="11"/>
       <c r="D15" s="4"/>
       <c r="E15" s="13" t="s">
@@ -1533,7 +1533,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="13" t="s">
@@ -1543,7 +1543,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="13" t="s">
@@ -1553,7 +1553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
@@ -1563,7 +1563,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="12" t="s">
@@ -1573,7 +1573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="24" t="s">
@@ -1583,7 +1583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="12" t="s">
@@ -1593,7 +1593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="24" t="s">
@@ -1603,7 +1603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="13" t="s">
@@ -1613,7 +1613,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="13" t="s">
@@ -1623,7 +1623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="13" t="s">
@@ -1633,7 +1633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="13" t="s">
@@ -1643,7 +1643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="13" t="s">
@@ -1653,7 +1653,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="12" t="s">
@@ -1663,7 +1663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="12" t="s">
@@ -1673,7 +1673,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="12" t="s">
@@ -1683,7 +1683,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="13" t="s">
@@ -1693,7 +1693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="13" t="s">
@@ -1703,7 +1703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="13" t="s">
@@ -1713,7 +1713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="13" t="s">
@@ -1723,7 +1723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="13" t="s">
@@ -1733,7 +1733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C36" s="11"/>
       <c r="D36" s="4"/>
       <c r="F36" t="s">
@@ -1743,7 +1743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C37" s="11"/>
       <c r="D37" s="4"/>
       <c r="F37" t="s">
@@ -1753,7 +1753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C38" s="11"/>
       <c r="D38" s="4"/>
       <c r="F38" t="s">
@@ -1763,7 +1763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C39" s="11"/>
       <c r="D39" s="4"/>
       <c r="F39" t="s">
@@ -1773,7 +1773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C40" s="11"/>
       <c r="D40" s="4"/>
       <c r="F40" t="s">
@@ -1783,7 +1783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C41" s="11"/>
       <c r="D41" s="4"/>
       <c r="F41" t="s">
@@ -1793,7 +1793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C42" s="11"/>
       <c r="D42" s="4"/>
       <c r="F42" t="s">
@@ -1803,7 +1803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C43" s="11"/>
       <c r="D43" s="4"/>
       <c r="F43" t="s">
@@ -1813,7 +1813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C44" s="11"/>
       <c r="D44" s="4"/>
       <c r="F44" t="s">
@@ -1823,7 +1823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C45" s="11"/>
       <c r="D45" s="4"/>
       <c r="F45" t="s">
@@ -1833,7 +1833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C46" s="11"/>
       <c r="D46" s="4"/>
       <c r="F46" t="s">
@@ -1843,7 +1843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C47" s="11"/>
       <c r="D47" s="4"/>
       <c r="F47" t="s">
@@ -1853,7 +1853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C48" s="11"/>
       <c r="D48" s="4"/>
       <c r="F48" t="s">
@@ -1863,7 +1863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C49" s="11"/>
       <c r="D49" s="4"/>
       <c r="F49" t="s">
@@ -1873,7 +1873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C50" s="11"/>
       <c r="D50" s="4"/>
       <c r="F50" t="s">
@@ -1883,7 +1883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C51" s="11"/>
       <c r="D51" s="4"/>
       <c r="F51" t="s">
@@ -1893,7 +1893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C52" s="11"/>
       <c r="D52" s="4"/>
       <c r="F52" t="s">
@@ -1903,7 +1903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C53" s="11"/>
       <c r="D53" s="4"/>
       <c r="F53" t="s">
@@ -1913,7 +1913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C54" s="11"/>
       <c r="D54" s="4"/>
       <c r="F54" t="s">
@@ -1923,7 +1923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C55" s="11"/>
       <c r="D55" s="4"/>
       <c r="F55" t="s">
@@ -1933,7 +1933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C56" s="11"/>
       <c r="D56" s="4"/>
       <c r="F56" t="s">
@@ -1943,7 +1943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C57" s="11"/>
       <c r="D57" s="4"/>
       <c r="F57" t="s">
@@ -1953,7 +1953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C58" s="11"/>
       <c r="D58" s="4"/>
       <c r="F58" t="s">
@@ -1963,7 +1963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C59" s="11"/>
       <c r="D59" s="5"/>
       <c r="F59" t="s">
@@ -1973,7 +1973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C60" s="11"/>
       <c r="D60" s="5"/>
       <c r="F60" t="s">
@@ -1983,7 +1983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C61" s="11"/>
       <c r="D61" s="5"/>
       <c r="F61" t="s">
@@ -1993,7 +1993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C62" s="11"/>
       <c r="D62" s="5"/>
       <c r="F62" t="s">
@@ -2003,7 +2003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
         <v>98</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
         <v>98</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
         <v>98</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
         <v>98</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>98</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
         <v>98</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
         <v>98</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
         <v>98</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F71" t="s">
         <v>98</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
         <v>98</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
         <v>98</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
         <v>98</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F75" t="s">
         <v>98</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F76" t="s">
         <v>98</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F77" t="s">
         <v>98</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F78" t="s">
         <v>98</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
         <v>98</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
         <v>98</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
         <v>98</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
         <v>98</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
         <v>98</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
         <v>98</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
         <v>98</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
         <v>98</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F87" t="s">
         <v>98</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F88" t="s">
         <v>98</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F89" t="s">
         <v>98</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F90" t="s">
         <v>98</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F91" t="s">
         <v>98</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
         <v>98</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F93" t="s">
         <v>98</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F95" t="s">
         <v>98</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F96" t="s">
         <v>98</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F97" t="s">
         <v>98</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="6:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" ht="18" x14ac:dyDescent="0.3">
       <c r="F98" t="s">
         <v>98</v>
       </c>
@@ -2302,19 +2302,19 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.88671875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="102.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="102.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
@@ -2361,7 +2361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11">
@@ -2374,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11">
@@ -2387,7 +2387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11">
@@ -2400,7 +2400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11">
@@ -2413,7 +2413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E8" s="12" t="s">
         <v>80</v>
       </c>
@@ -2432,16 +2432,16 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.88671875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="102.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="102.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
@@ -2488,7 +2488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11">
@@ -2501,7 +2501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11">
@@ -2527,7 +2527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11">
@@ -2540,127 +2540,127 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E8" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E9" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E10" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E11" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E13" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E14" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E15" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E16" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E17" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E18" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E19" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E20" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E23" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E24" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E26" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E27" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E28" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E29" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E30" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E31" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="5:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E32" s="13" t="s">
         <v>64</v>
       </c>
@@ -2679,17 +2679,17 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
@@ -2736,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11">
@@ -2749,7 +2749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11">
@@ -2762,7 +2762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11">
@@ -2775,7 +2775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C7" s="11">
         <v>6</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="11">
         <v>7</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="11">
         <v>8</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="11">
         <v>9</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="11">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="11">
         <v>11</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="11">
         <v>12</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="11">
         <v>13</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="11">
         <v>14</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C16" s="11">
         <v>15</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C17" s="11">
         <v>16</v>
       </c>
@@ -2939,17 +2939,17 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="111.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="111.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
@@ -2996,7 +2996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11">
@@ -3009,7 +3009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11">
@@ -3022,7 +3022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11">
@@ -3035,7 +3035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C7" s="11">
         <v>6</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="11">
         <v>7</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="11">
         <v>8</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="11">
         <v>9</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="11">
         <v>10</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="11">
         <v>11</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="11">
         <v>12</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="11">
         <v>13</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="11">
         <v>14</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C16" s="11">
         <v>15</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C17" s="11">
         <v>16</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C18" s="11">
         <v>17</v>
       </c>
@@ -3213,17 +3213,17 @@
       <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
@@ -3270,7 +3270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11">
@@ -3283,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11">
@@ -3296,7 +3296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11">
@@ -3309,7 +3309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C7" s="11">
         <v>6</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="11">
         <v>8</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="11">
         <v>9</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="11">
         <v>10</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="11">
         <v>11</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="11">
         <v>12</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="11">
         <v>13</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="11">
         <v>14</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="11">
         <v>15</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C16" s="11">
         <v>16</v>
       </c>
@@ -3460,17 +3460,17 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="16">
@@ -3517,7 +3517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16">
@@ -3530,7 +3530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="16">
@@ -3543,7 +3543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="16">
@@ -3556,7 +3556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="16">
@@ -3569,7 +3569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="17"/>
       <c r="D8" s="8"/>
@@ -3580,7 +3580,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E9" s="6" t="s">
         <v>81</v>
       </c>
